--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl17-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl17-Ccr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Ccr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.149358</v>
+        <v>0.244729</v>
       </c>
       <c r="H2">
-        <v>0.448074</v>
+        <v>0.734187</v>
       </c>
       <c r="I2">
-        <v>0.3337024803851839</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="J2">
-        <v>0.333702480385184</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,36 +561,36 @@
         <v>0.26459</v>
       </c>
       <c r="O2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01317287774</v>
+        <v>0.02158428203666667</v>
       </c>
       <c r="R2">
-        <v>0.11855589966</v>
+        <v>0.19425853833</v>
       </c>
       <c r="S2">
-        <v>0.05570898441317631</v>
+        <v>0.4052712693903822</v>
       </c>
       <c r="T2">
-        <v>0.05570898441317632</v>
+        <v>0.4052712693903822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +605,10 @@
         <v>0.448074</v>
       </c>
       <c r="I3">
-        <v>0.3337024803851839</v>
+        <v>0.2473368757017301</v>
       </c>
       <c r="J3">
-        <v>0.333702480385184</v>
+        <v>0.24733687570173</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,42 +617,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4401103333333333</v>
+        <v>0.08819666666666666</v>
       </c>
       <c r="N3">
-        <v>1.320331</v>
+        <v>0.26459</v>
       </c>
       <c r="O3">
-        <v>0.8330579252846041</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.833057925284604</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06573399916599999</v>
+        <v>0.01317287774</v>
       </c>
       <c r="R3">
-        <v>0.5916059924939999</v>
+        <v>0.11855589966</v>
       </c>
       <c r="S3">
-        <v>0.2779934959720076</v>
+        <v>0.2473368757017301</v>
       </c>
       <c r="T3">
-        <v>0.2779934959720076</v>
+        <v>0.24733687570173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2982203333333334</v>
+        <v>0.1021816666666667</v>
       </c>
       <c r="H4">
-        <v>0.894661</v>
+        <v>0.306545</v>
       </c>
       <c r="I4">
-        <v>0.6662975196148161</v>
+        <v>0.1692128589518402</v>
       </c>
       <c r="J4">
-        <v>0.6662975196148161</v>
+        <v>0.1692128589518402</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,36 +685,36 @@
         <v>0.26459</v>
       </c>
       <c r="O4">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1669420747153959</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.02630203933222222</v>
+        <v>0.009012082394444444</v>
       </c>
       <c r="R4">
-        <v>0.23671835399</v>
+        <v>0.08110874155</v>
       </c>
       <c r="S4">
-        <v>0.1112330903022196</v>
+        <v>0.1692128589518402</v>
       </c>
       <c r="T4">
-        <v>0.1112330903022196</v>
+        <v>0.1692128589518402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2982203333333334</v>
+        <v>0.107596</v>
       </c>
       <c r="H5">
-        <v>0.894661</v>
+        <v>0.322788</v>
       </c>
       <c r="I5">
-        <v>0.6662975196148161</v>
+        <v>0.1781789959560476</v>
       </c>
       <c r="J5">
-        <v>0.6662975196148161</v>
+        <v>0.1781789959560476</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4401103333333333</v>
+        <v>0.08819666666666666</v>
       </c>
       <c r="N5">
-        <v>1.320331</v>
+        <v>0.26459</v>
       </c>
       <c r="O5">
-        <v>0.8330579252846041</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.833057925284604</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1312498503101111</v>
+        <v>0.009489608546666667</v>
       </c>
       <c r="R5">
-        <v>1.181248652791</v>
+        <v>0.08540647692</v>
       </c>
       <c r="S5">
-        <v>0.5550644293125965</v>
+        <v>0.1781789959560476</v>
       </c>
       <c r="T5">
-        <v>0.5550644293125965</v>
+        <v>0.1781789959560476</v>
       </c>
     </row>
   </sheetData>
